--- a/medicine/Enfance/Alera/Alera.xlsx
+++ b/medicine/Enfance/Alera/Alera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alera est une trilogie de l'auteur américaine Cayla Kluver (en) publiée entre 2009 et 2011 aux États-Unis et entre 2011 et 2013 en France.
-Cayla Kluver l'a écrit à l'âge de 16 ans[1].
+Cayla Kluver l'a écrit à l'âge de 16 ans.
 Ce roman d'heroic fantasy, à la limite du roman d'amour, met en scène tout un monde créé de toutes pièces, qui se rapprocherait du Moyen Âge.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alera est le personnage principal du roman. Elle en est le narrateur interne, sous le rôle de la princesse héritière du royaume d'Hytanica.
 Promise à un homme qui lui répugne, elle fait la connaissance de Narian, élevé à Cokyrie et donc ennemi du royaume.
@@ -548,7 +562,9 @@
           <t>Tomes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La trilogie est publiée en français par les Éditions du Masque dans la collection « M S K » :
 Tome 1 : Alera, la légende de la lune sanglante, 454 pages, traduit de l'anglais par Nicole Ménage, 2011  (ISBN 9782702434963)
